--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730CF210-4DB7-43F8-B0AC-D43B8AC76B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6813AB9-F004-44D4-89BC-A7317E7957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0207h08,S3c0818h07,S3c0818h09,S3aH7,S3c0818h12,S3d0825h10,S4aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH6,S1b0207h18,S3c0818h18,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h07,S3c0818h16,S5aH4,S3aH2,S3c0818h13,S3d0825h08,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1b0207h14,S1b0207h17</t>
-  </si>
-  <si>
-    <t>S3c0818h20,S4aH8,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1b0207h23,S2aH8,S3c0818h05,S1b0207h05,S3d0825h06,S3d0825h23,S3c0818h23,S1b0207h24,S3d0825h03,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S1b0207h01,S1b0207h19,S1b0207h20,S4aH1,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S3d0825h01,S3d0825h20,S1b0207h06,S3aH8,S3c0818h19,S3c0818h24,S3d0825h02,S3d0825h22,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24</t>
+    <t>S3aH7,S3c0818h12,S1aH6,S1b0207h18,S3c0818h18,S3d0825h10,S4aH5,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h14,S1b0207h17,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1b0207h08,S3c0818h07,S3c0818h09,S3aH2,S3c0818h13,S3d0825h08,S1b0207h07,S3c0818h16,S5aH4</t>
+  </si>
+  <si>
+    <t>S1b0207h23,S2aH8,S3c0818h05,S1b0207h24,S3d0825h03,S1b0207h05,S3d0825h06,S3d0825h23,S4aH1,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3c0818h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3d0825h01,S3d0825h20,S1b0207h01,S1b0207h19,S1b0207h20,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h20,S4aH8,S3aH8,S3c0818h19,S3c0818h24,S1b0207h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3c0818h20,S4aH8,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1b0207h23,S2aH8,S3c0818h05,S1b0207h05,S3d0825h06,S3d0825h23,S3c0818h23,S1b0207h24,S3d0825h03,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S1b0207h01,S1b0207h19,S1b0207h20,S4aH1,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S3d0825h01,S3d0825h20,S1b0207h06,S3aH8,S3c0818h19,S3c0818h24,S3d0825h02,S3d0825h22,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24</v>
+        <v>S1b0207h23,S2aH8,S3c0818h05,S1b0207h24,S3d0825h03,S1b0207h05,S3d0825h06,S3d0825h23,S4aH1,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3c0818h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3d0825h01,S3d0825h20,S1b0207h01,S1b0207h19,S1b0207h20,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h20,S4aH8,S3aH8,S3c0818h19,S3c0818h24,S1b0207h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0207h08,S3c0818h07,S3c0818h09,S3aH7,S3c0818h12,S3d0825h10,S4aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH6,S1b0207h18,S3c0818h18,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h07,S3c0818h16,S5aH4,S3aH2,S3c0818h13,S3d0825h08,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1b0207h14,S1b0207h17</v>
+        <v>S3aH7,S3c0818h12,S1aH6,S1b0207h18,S3c0818h18,S3d0825h10,S4aH5,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h14,S1b0207h17,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1b0207h08,S3c0818h07,S3c0818h09,S3aH2,S3c0818h13,S3d0825h08,S1b0207h07,S3c0818h16,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B78C9-F1F3-4264-A8FA-B086EE423FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FCE689-D053-4BE5-B8D5-09D87F3F7B56}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD58B798-494B-4257-86F1-B0EC03C12320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DEA478-B41C-4C88-B495-2E1B4BAE9423}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2915,10 +2915,10 @@
         <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.26113640777746605</v>
+        <v>7.1680441960335781E-2</v>
       </c>
       <c r="O4" t="s">
         <v>294</v>
@@ -2950,10 +2950,10 @@
         <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.51636850169403736</v>
+        <v>0.2917974060726386</v>
       </c>
       <c r="O5" t="s">
         <v>294</v>
@@ -2985,10 +2985,10 @@
         <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>7.1680441960335767E-2</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O6" t="s">
         <v>294</v>
@@ -3020,10 +3020,10 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.29179740607263854</v>
+        <v>5.9017242495522128E-2</v>
       </c>
       <c r="O7" t="s">
         <v>294</v>
@@ -3055,10 +3055,10 @@
         <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>5.9017242495522121E-2</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O8" t="s">
         <v>294</v>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8729E1-2D8B-4EF2-9CF0-6515AC7B796D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A31727-9518-47E0-A652-F9D8B4F80364}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6813AB9-F004-44D4-89BC-A7317E7957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E6117-DA27-4DDC-AE1F-DF02051C49D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH7,S3c0818h12,S1aH6,S1b0207h18,S3c0818h18,S3d0825h10,S4aH5,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h14,S1b0207h17,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1b0207h08,S3c0818h07,S3c0818h09,S3aH2,S3c0818h13,S3d0825h08,S1b0207h07,S3c0818h16,S5aH4</t>
-  </si>
-  <si>
-    <t>S1b0207h23,S2aH8,S3c0818h05,S1b0207h24,S3d0825h03,S1b0207h05,S3d0825h06,S3d0825h23,S4aH1,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3c0818h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3d0825h01,S3d0825h20,S1b0207h01,S1b0207h19,S1b0207h20,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h20,S4aH8,S3aH8,S3c0818h19,S3c0818h24,S1b0207h06</t>
+    <t>S3aH7,S3c0818h12,S1b0207h07,S3c0818h16,S5aH4,S1b0207h14,S1b0207h17,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S3aH2,S3c0818h13,S3d0825h08,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h08,S3c0818h07,S3c0818h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1aH6,S1b0207h18,S3c0818h18,S2aH7,S3aH4,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1b0207h23,S2aH8,S3c0818h05,S1b0207h06,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3aH8,S3c0818h19,S3c0818h24,S1b0207h01,S1b0207h19,S1b0207h20,S3c0818h20,S4aH8,S3d0825h01,S3d0825h20,S1b0207h24,S3d0825h03,S3c0818h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0207h23,S2aH8,S3c0818h05,S1b0207h24,S3d0825h03,S1b0207h05,S3d0825h06,S3d0825h23,S4aH1,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3c0818h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3d0825h01,S3d0825h20,S1b0207h01,S1b0207h19,S1b0207h20,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S3c0818h20,S4aH8,S3aH8,S3c0818h19,S3c0818h24,S1b0207h06</v>
+        <v>S1b0207h23,S2aH8,S3c0818h05,S1b0207h06,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3aH8,S3c0818h19,S3c0818h24,S1b0207h01,S1b0207h19,S1b0207h20,S3c0818h20,S4aH8,S3d0825h01,S3d0825h20,S1b0207h24,S3d0825h03,S3c0818h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH7,S3c0818h12,S1aH6,S1b0207h18,S3c0818h18,S3d0825h10,S4aH5,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h14,S1b0207h17,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1b0207h08,S3c0818h07,S3c0818h09,S3aH2,S3c0818h13,S3d0825h08,S1b0207h07,S3c0818h16,S5aH4</v>
+        <v>S3aH7,S3c0818h12,S1b0207h07,S3c0818h16,S5aH4,S1b0207h14,S1b0207h17,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S3aH2,S3c0818h13,S3d0825h08,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h08,S3c0818h07,S3c0818h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1aH6,S1b0207h18,S3c0818h18,S2aH7,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FCE689-D053-4BE5-B8D5-09D87F3F7B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8294310F-417B-40D6-88D6-7F3D79F784E5}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DEA478-B41C-4C88-B495-2E1B4BAE9423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D8E770-7CBD-4A29-A28F-28043998FA87}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2950,10 +2950,10 @@
         <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.2917974060726386</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O5" t="s">
         <v>294</v>
@@ -2985,10 +2985,10 @@
         <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.51636850169403747</v>
+        <v>5.9017242495522135E-2</v>
       </c>
       <c r="O6" t="s">
         <v>294</v>
@@ -3020,10 +3020,10 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>5.9017242495522128E-2</v>
+        <v>0.26113640777746611</v>
       </c>
       <c r="O7" t="s">
         <v>294</v>
@@ -3055,10 +3055,10 @@
         <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.26113640777746605</v>
+        <v>0.2917974060726386</v>
       </c>
       <c r="O8" t="s">
         <v>294</v>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A31727-9518-47E0-A652-F9D8B4F80364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187BC3BA-671A-477C-AD0D-E5E3F5F551E6}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E6117-DA27-4DDC-AE1F-DF02051C49D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D4E70-D937-4FA9-8579-4B7DB82678AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH7,S3c0818h12,S1b0207h07,S3c0818h16,S5aH4,S1b0207h14,S1b0207h17,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S3aH2,S3c0818h13,S3d0825h08,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h08,S3c0818h07,S3c0818h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1aH6,S1b0207h18,S3c0818h18,S2aH7,S3aH4,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S1b0207h23,S2aH8,S3c0818h05,S1b0207h06,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3aH8,S3c0818h19,S3c0818h24,S1b0207h01,S1b0207h19,S1b0207h20,S3c0818h20,S4aH8,S3d0825h01,S3d0825h20,S1b0207h24,S3d0825h03,S3c0818h23</t>
+    <t>S3aH7,S3c0818h12,S1b0207h08,S3c0818h07,S3c0818h09,S1b0207h14,S1b0207h17,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S3aH2,S3c0818h13,S3d0825h08,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1b0207h07,S3c0818h16,S5aH4,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH6,S1b0207h18,S3c0818h18,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1b0207h23,S2aH8,S3c0818h05,S3c0818h20,S4aH8,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3d0825h02,S3d0825h22,S3aH8,S3c0818h19,S3c0818h24,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S1b0207h06,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S1b0207h01,S1b0207h19,S1b0207h20,S3d0825h01,S3d0825h20,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S1b0207h24,S3d0825h03,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S3c0818h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0207h23,S2aH8,S3c0818h05,S1b0207h06,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S3d0825h02,S3d0825h22,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S3aH8,S3c0818h19,S3c0818h24,S1b0207h01,S1b0207h19,S1b0207h20,S3c0818h20,S4aH8,S3d0825h01,S3d0825h20,S1b0207h24,S3d0825h03,S3c0818h23</v>
+        <v>S1b0207h23,S2aH8,S3c0818h05,S3c0818h20,S4aH8,S1aH1,S3c0818h03,S3d0825h05,S3d0825h24,S3d0825h02,S3d0825h22,S3aH8,S3c0818h19,S3c0818h24,S4aH1,S1b0207h05,S3d0825h06,S3d0825h23,S1b0207h06,S3c0818h01,S3c0818h04,S3c0818h21,S3d0825h19,S1b0207h01,S1b0207h19,S1b0207h20,S3d0825h01,S3d0825h20,S1b0207h02,S1b0207h04,S3aH1,S3c0818h02,S3c0818h06,S1b0207h22,S2aH1,S3d0825h21,S5aH8,S1b0207h24,S3d0825h03,S1aH8,S1b0207h03,S1b0207h21,S3c0818h22,S3d0825h04,S5aH1,S3c0818h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH7,S3c0818h12,S1b0207h07,S3c0818h16,S5aH4,S1b0207h14,S1b0207h17,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S3aH2,S3c0818h13,S3d0825h08,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1b0207h08,S3c0818h07,S3c0818h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1aH6,S1b0207h18,S3c0818h18,S2aH7,S3aH4,S4aH3,S4aH4</v>
+        <v>S3aH7,S3c0818h12,S1b0207h08,S3c0818h07,S3c0818h09,S1b0207h14,S1b0207h17,S1aH3,S1b0207h11,S1b0207h15,S3c0818h08,S3c0818h11,S3c0818h17,S3aH2,S3c0818h13,S3d0825h08,S1aH4,S2aH2,S3c0818h10,S3d0825h12,S3d0825h16,S3d0825h17,S4aH6,S3d0825h10,S4aH5,S1b0207h07,S3c0818h16,S5aH4,S1aH2,S1aH7,S1b0207h10,S2aH3,S3aH6,S3c0818h14,S4aH7,S5aH6,S5aH7,S1b0207h09,S1b0207h12,S3aH3,S3d0825h09,S1aH5,S2aH4,S2aH5,S3d0825h07,S5aH2,S5aH5,S1b0207h13,S1b0207h16,S3c0818h15,S3d0825h14,S4aH2,S1aH6,S1b0207h18,S3c0818h18,S2aH6,S3aH5,S3d0825h11,S3d0825h13,S3d0825h15,S3d0825h18,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8294310F-417B-40D6-88D6-7F3D79F784E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6F89BD-AF32-41EE-8E99-A6F7B7C6DEE3}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D8E770-7CBD-4A29-A28F-28043998FA87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20689519-4D5B-4E64-96D6-E97EA367E6F4}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2950,10 +2950,10 @@
         <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.51636850169403747</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O5" t="s">
         <v>294</v>
@@ -2985,10 +2985,10 @@
         <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>5.9017242495522135E-2</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O6" t="s">
         <v>294</v>
@@ -3020,10 +3020,10 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.26113640777746611</v>
+        <v>5.9017242495522128E-2</v>
       </c>
       <c r="O7" t="s">
         <v>294</v>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187BC3BA-671A-477C-AD0D-E5E3F5F551E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B18E219-D154-4669-902E-D3DEE656A2A3}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22935825-BDB0-48F2-8F4D-334FF14C0F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08133618-E54E-4D1E-B298-833090914666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0122h13,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6d1009h12,S1b0122h10,S6aH5,S6d1009h11,S1aH5,S1b0122h14,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S1b0122h12,S2aH6,S3aH5,S5aH3,S6d1009h13,S1b0122h08,S4aH2,S6d1009h07,S6d1009h16,S1b0122h07,S3aH2,S6c0825h09,S6c0825h10,S6d1009h09,S1aH4,S1b0122h18,S2aH2,S4aH6,S6d1009h08,S6d1009h17,S1b0122h11,S6c0825h18,S2aH7,S3aH4,S4aH3,S4aH4,S6d1009h10,S6d1009h18,S6aH7,S6c0825h08,S6c0825h11,S6d1009h14,S4aH5,S6c0825h17,S1b0122h16,S3aH3,S6c0825h07,S1b0122h17,S5aH4,S6aH3,S6aH4,S6c0825h13,S6d1009h15,S1aH6,S1b0122h09,S6c0825h12,S1b0122h15,S3aH7,S6c0825h14,S6c0825h15,S6c0825h16</t>
-  </si>
-  <si>
-    <t>S1b0122h20,S6c0825h05,S6d1009h06,S6d1009h24,S1b0122h04,S4aH8,S6c0825h04,S6d1009h20,S1b0122h02,S6d1009h02,S1aH8,S1b0122h24,S5aH1,S6c0825h22,S6d1009h23,S1b0122h22,S2aH1,S5aH8,S6c0825h21,S6c0825h24,S6d1009h01,S1b0122h06,S3aH8,S6c0825h19,S4aH1,S6aH1,S6c0825h02,S6d1009h21,S1aH1,S1b0122h01,S1b0122h19,S6c0825h01,S6c0825h06,S3aH1,S6d1009h03,S6d1009h04,S6d1009h22,S1b0122h03,S6c0825h03,S1b0122h05,S6d1009h19,S6c0825h20,S1b0122h23,S6aH8,S6c0825h23,S1b0122h21,S2aH8,S6d1009h05</t>
+    <t>S1aH2,S1aH7,S1b0122h13,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6d1009h12,S6aH7,S6c0825h08,S6c0825h11,S6d1009h14,S1b0122h17,S5aH4,S6aH3,S6aH4,S6c0825h13,S6d1009h15,S1aH5,S1b0122h14,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0122h08,S4aH2,S6d1009h07,S6d1009h16,S1b0122h11,S6c0825h18,S1aH4,S1b0122h18,S2aH2,S4aH6,S6d1009h08,S6d1009h17,S1aH3,S1b0122h12,S1aH6,S1b0122h09,S6c0825h12,S1b0122h07,S3aH2,S6c0825h09,S6c0825h10,S6d1009h09,S1b0122h16,S3aH3,S6c0825h07,S4aH5,S6c0825h17,S1b0122h15,S3aH7,S6c0825h14,S6c0825h15,S6c0825h16,S2aH6,S3aH5,S5aH3,S6d1009h13,S2aH7,S3aH4,S4aH3,S4aH4,S6d1009h10,S6d1009h18,S1b0122h10,S6aH5,S6d1009h11</t>
+  </si>
+  <si>
+    <t>S1b0122h20,S6c0825h05,S6d1009h06,S6d1009h24,S3aH1,S6d1009h03,S6d1009h04,S6d1009h22,S6c0825h20,S1b0122h22,S2aH1,S5aH8,S6c0825h21,S6c0825h24,S6d1009h01,S1aH1,S4aH1,S6aH1,S6c0825h02,S6d1009h21,S1b0122h02,S6d1009h02,S1b0122h23,S6aH8,S6c0825h23,S1b0122h06,S3aH8,S6c0825h19,S1b0122h05,S6d1009h19,S1b0122h03,S6c0825h03,S1b0122h21,S2aH8,S6d1009h05,S1aH8,S1b0122h24,S5aH1,S6c0825h22,S6d1009h23,S1b0122h01,S1b0122h19,S6c0825h01,S6c0825h06,S1b0122h04,S4aH8,S6c0825h04,S6d1009h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0122h20,S6c0825h05,S6d1009h06,S6d1009h24,S1b0122h04,S4aH8,S6c0825h04,S6d1009h20,S1b0122h02,S6d1009h02,S1aH8,S1b0122h24,S5aH1,S6c0825h22,S6d1009h23,S1b0122h22,S2aH1,S5aH8,S6c0825h21,S6c0825h24,S6d1009h01,S1b0122h06,S3aH8,S6c0825h19,S4aH1,S6aH1,S6c0825h02,S6d1009h21,S1aH1,S1b0122h01,S1b0122h19,S6c0825h01,S6c0825h06,S3aH1,S6d1009h03,S6d1009h04,S6d1009h22,S1b0122h03,S6c0825h03,S1b0122h05,S6d1009h19,S6c0825h20,S1b0122h23,S6aH8,S6c0825h23,S1b0122h21,S2aH8,S6d1009h05</v>
+        <v>S1b0122h20,S6c0825h05,S6d1009h06,S6d1009h24,S3aH1,S6d1009h03,S6d1009h04,S6d1009h22,S6c0825h20,S1b0122h22,S2aH1,S5aH8,S6c0825h21,S6c0825h24,S6d1009h01,S1aH1,S4aH1,S6aH1,S6c0825h02,S6d1009h21,S1b0122h02,S6d1009h02,S1b0122h23,S6aH8,S6c0825h23,S1b0122h06,S3aH8,S6c0825h19,S1b0122h05,S6d1009h19,S1b0122h03,S6c0825h03,S1b0122h21,S2aH8,S6d1009h05,S1aH8,S1b0122h24,S5aH1,S6c0825h22,S6d1009h23,S1b0122h01,S1b0122h19,S6c0825h01,S6c0825h06,S1b0122h04,S4aH8,S6c0825h04,S6d1009h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0122h13,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6d1009h12,S1b0122h10,S6aH5,S6d1009h11,S1aH5,S1b0122h14,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S1b0122h12,S2aH6,S3aH5,S5aH3,S6d1009h13,S1b0122h08,S4aH2,S6d1009h07,S6d1009h16,S1b0122h07,S3aH2,S6c0825h09,S6c0825h10,S6d1009h09,S1aH4,S1b0122h18,S2aH2,S4aH6,S6d1009h08,S6d1009h17,S1b0122h11,S6c0825h18,S2aH7,S3aH4,S4aH3,S4aH4,S6d1009h10,S6d1009h18,S6aH7,S6c0825h08,S6c0825h11,S6d1009h14,S4aH5,S6c0825h17,S1b0122h16,S3aH3,S6c0825h07,S1b0122h17,S5aH4,S6aH3,S6aH4,S6c0825h13,S6d1009h15,S1aH6,S1b0122h09,S6c0825h12,S1b0122h15,S3aH7,S6c0825h14,S6c0825h15,S6c0825h16</v>
+        <v>S1aH2,S1aH7,S1b0122h13,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6d1009h12,S6aH7,S6c0825h08,S6c0825h11,S6d1009h14,S1b0122h17,S5aH4,S6aH3,S6aH4,S6c0825h13,S6d1009h15,S1aH5,S1b0122h14,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0122h08,S4aH2,S6d1009h07,S6d1009h16,S1b0122h11,S6c0825h18,S1aH4,S1b0122h18,S2aH2,S4aH6,S6d1009h08,S6d1009h17,S1aH3,S1b0122h12,S1aH6,S1b0122h09,S6c0825h12,S1b0122h07,S3aH2,S6c0825h09,S6c0825h10,S6d1009h09,S1b0122h16,S3aH3,S6c0825h07,S4aH5,S6c0825h17,S1b0122h15,S3aH7,S6c0825h14,S6c0825h15,S6c0825h16,S2aH6,S3aH5,S5aH3,S6d1009h13,S2aH7,S3aH4,S4aH3,S4aH4,S6d1009h10,S6d1009h18,S1b0122h10,S6aH5,S6d1009h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA8B666-284D-42DD-BE73-6A4EE757B44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDAC02E-AB50-4B3B-960A-02B8C3EDA9AA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB25DBE9-0478-454B-8F96-21A9E69DB907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2871CA-5E27-4FA5-8975-7EEDE26ABB06}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.14913571721444138</v>
+        <v>9.2837566628541826E-2</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.13522950430522881</v>
+        <v>0.14913571721444141</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>9.2837566628541826E-2</v>
+        <v>0.42249509052849649</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.26113640777746605</v>
+        <v>0.13916571354582533</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>0.13916571354582533</v>
+        <v>0.13522950430522881</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.42249509052849649</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061E9CE7-DB37-4F89-9A95-BED99D35F29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9959ADFA-D03C-4E55-88CD-C2C34444D183}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
